--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_22.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_22.xlsx
@@ -1217,7 +1217,7 @@
         <v>338965688.90999979</v>
       </c>
       <c r="E13" s="1">
-        <v>332114255</v>
+        <v>332114255.60000002</v>
       </c>
       <c r="F13" s="1">
         <v>325268233.58999997</v>
@@ -1253,7 +1253,7 @@
         <v>-45752811.059999987</v>
       </c>
       <c r="E14" s="1">
-        <v>6537985</v>
+        <v>537958.22</v>
       </c>
       <c r="F14" s="1">
         <v>44875817.619999997</v>
@@ -1289,7 +1289,7 @@
         <v>30000000</v>
       </c>
       <c r="E15" s="1">
-        <v>2230000000</v>
+        <v>30000000</v>
       </c>
       <c r="F15" s="1">
         <v>35000000</v>
@@ -1325,7 +1325,7 @@
         <v>-50601311.959999993</v>
       </c>
       <c r="E16" s="1">
-        <v>60473972</v>
+        <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
         <v>-53616441.74000001</v>
@@ -1399,7 +1399,8 @@
         <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
-        <v>811447134856</v>
+        <f>SUM(E12:E17)</f>
+        <v>1447134828.46</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
@@ -1439,7 +1440,7 @@
         <v>-383099999.99999988</v>
       </c>
       <c r="E19" s="1">
-        <v>384700000</v>
+        <v>-384700000</v>
       </c>
       <c r="F19" s="1">
         <v>-412700000</v>
@@ -1513,7 +1514,8 @@
         <v>1096925174.6300049</v>
       </c>
       <c r="E21" s="33">
-        <v>1062434856</v>
+        <f>SUM(E18:E20)</f>
+        <v>1062434828.46</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
@@ -1553,7 +1555,7 @@
         <v>-32201025</v>
       </c>
       <c r="E22" s="32">
-        <v>20015625</v>
+        <v>-20015625</v>
       </c>
       <c r="F22" s="32">
         <v>-20015625</v>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>1082450481</v>
+        <v>1042419203.46</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
@@ -1640,7 +1642,7 @@
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>1.0626705644647103</v>
+        <v>1.0233707895129958</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
@@ -1731,11 +1733,11 @@
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>8.0437898885579711E-3</v>
+        <v>-2.9235772949478406E-2</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-6.6628388297842706E-2</v>
+        <v>-3.0784787266715106E-2</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0278416392939487</v>
+        <v>1.0199816843036058</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
